--- a/Code/Results/Cases/Case_4_156/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_156/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.77972360820695</v>
+        <v>1.224441849520701</v>
       </c>
       <c r="C2">
-        <v>1.490346730542683</v>
+        <v>0.4422168556887982</v>
       </c>
       <c r="D2">
-        <v>0.2117944419885305</v>
+        <v>0.07928524414171534</v>
       </c>
       <c r="E2">
-        <v>1.478969643267973</v>
+        <v>0.420912291607948</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.601544118295834</v>
+        <v>0.8331245288309219</v>
       </c>
       <c r="H2">
-        <v>0.8392317714824458</v>
+        <v>0.7781348121798999</v>
       </c>
       <c r="I2">
-        <v>0.5894465857613511</v>
+        <v>0.5395731323089805</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.263734292916581</v>
+        <v>1.080384171106516</v>
       </c>
       <c r="C3">
-        <v>1.284543508281388</v>
+        <v>0.3854780840128456</v>
       </c>
       <c r="D3">
-        <v>0.182240419714276</v>
+        <v>0.0717832443492199</v>
       </c>
       <c r="E3">
-        <v>1.259717903230296</v>
+        <v>0.3668040333107143</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.391462923451797</v>
+        <v>0.7912173271899405</v>
       </c>
       <c r="H3">
-        <v>0.7518112363519833</v>
+        <v>0.7658778946088773</v>
       </c>
       <c r="I3">
-        <v>0.5338694304836409</v>
+        <v>0.5336542410614769</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.950899464458246</v>
+        <v>0.9920831924560503</v>
       </c>
       <c r="C4">
-        <v>1.160232273427368</v>
+        <v>0.3506509177374255</v>
       </c>
       <c r="D4">
-        <v>0.1644814667720311</v>
+        <v>0.06721998986452604</v>
       </c>
       <c r="E4">
-        <v>1.129277464165654</v>
+        <v>0.3337230811786895</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.268498347677706</v>
+        <v>0.7663798871778909</v>
       </c>
       <c r="H4">
-        <v>0.7012367774787265</v>
+        <v>0.759035056955355</v>
       </c>
       <c r="I4">
-        <v>0.5025277179071779</v>
+        <v>0.530590331385568</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.824232303583983</v>
+        <v>0.9561366869488666</v>
       </c>
       <c r="C5">
-        <v>1.109996534313495</v>
+        <v>0.3364601464040788</v>
       </c>
       <c r="D5">
-        <v>0.1573275031818469</v>
+        <v>0.06537102845226173</v>
       </c>
       <c r="E5">
-        <v>1.076995741232921</v>
+        <v>0.3202748146432839</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.21971036619729</v>
+        <v>0.7564792546534136</v>
       </c>
       <c r="H5">
-        <v>0.681317007716018</v>
+        <v>0.7564165988064531</v>
       </c>
       <c r="I5">
-        <v>0.4903771933810361</v>
+        <v>0.5294835121654629</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.803243513585755</v>
+        <v>0.9501699923242199</v>
       </c>
       <c r="C6">
-        <v>1.101677872130665</v>
+        <v>0.3341038435743826</v>
       </c>
       <c r="D6">
-        <v>0.1561442090342666</v>
+        <v>0.065064644020012</v>
       </c>
       <c r="E6">
-        <v>1.068362410943536</v>
+        <v>0.3180436112658214</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.211683667847723</v>
+        <v>0.7548484855350353</v>
       </c>
       <c r="H6">
-        <v>0.6780485475452735</v>
+        <v>0.7559920277196284</v>
       </c>
       <c r="I6">
-        <v>0.4883950128719903</v>
+        <v>0.5293082385404375</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.94918811610745</v>
+        <v>0.9915982574891586</v>
       </c>
       <c r="C7">
-        <v>1.159553184234937</v>
+        <v>0.3504595310654395</v>
       </c>
       <c r="D7">
-        <v>0.1643846680475747</v>
+        <v>0.06719501147472329</v>
       </c>
       <c r="E7">
-        <v>1.128569054800948</v>
+        <v>0.3335415857384447</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.267835268276286</v>
+        <v>0.7662454748208347</v>
       </c>
       <c r="H7">
-        <v>0.7009654520351489</v>
+        <v>0.7589990571801764</v>
       </c>
       <c r="I7">
-        <v>0.5023614327214077</v>
+        <v>0.5305748326840245</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.600864392032577</v>
+        <v>1.17473868244997</v>
       </c>
       <c r="C8">
-        <v>1.41889952511616</v>
+        <v>0.4226504255448162</v>
       </c>
       <c r="D8">
-        <v>0.2015146315521861</v>
+        <v>0.07668949851232298</v>
       </c>
       <c r="E8">
-        <v>1.402389464520368</v>
+        <v>0.402224423252477</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.527733477800496</v>
+        <v>0.8184870500026022</v>
       </c>
       <c r="H8">
-        <v>0.8083877112515836</v>
+        <v>0.7737658568335348</v>
       </c>
       <c r="I8">
-        <v>0.5696560791810299</v>
+        <v>0.5374129244749994</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.920138006722084</v>
+        <v>1.535146559177406</v>
       </c>
       <c r="C9">
-        <v>1.948691201615702</v>
+        <v>0.5643588085901001</v>
       </c>
       <c r="D9">
-        <v>0.278145393369428</v>
+        <v>0.09566000308355171</v>
       </c>
       <c r="E9">
-        <v>1.981994252798302</v>
+        <v>0.5381854486696369</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.095297468625688</v>
+        <v>0.9282071144384645</v>
       </c>
       <c r="H9">
-        <v>1.048346906190602</v>
+        <v>0.8082212371615753</v>
       </c>
       <c r="I9">
-        <v>0.727759659991186</v>
+        <v>0.5554240937004522</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.93063800268493</v>
+        <v>1.800843055259918</v>
       </c>
       <c r="C10">
-        <v>2.359036579549979</v>
+        <v>0.6686499495361886</v>
       </c>
       <c r="D10">
-        <v>0.3379905082703658</v>
+        <v>0.1098284020873592</v>
       </c>
       <c r="E10">
-        <v>2.449948741752792</v>
+        <v>0.639070785498788</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.564210572307786</v>
+        <v>1.013515835252917</v>
       </c>
       <c r="H10">
-        <v>1.250236478140636</v>
+        <v>0.837000441137576</v>
       </c>
       <c r="I10">
-        <v>0.8665244137876016</v>
+        <v>0.5715704776142445</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.403754560832112</v>
+        <v>1.921943027878456</v>
       </c>
       <c r="C11">
-        <v>2.552597095902286</v>
+        <v>0.7161542255649351</v>
       </c>
       <c r="D11">
-        <v>0.3663197202734096</v>
+        <v>0.1163277447645044</v>
       </c>
       <c r="E11">
-        <v>2.676696173441812</v>
+        <v>0.6852306832343089</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.793457974817869</v>
+        <v>1.053402763484911</v>
       </c>
       <c r="H11">
-        <v>1.349800071315258</v>
+        <v>0.8508701930509801</v>
       </c>
       <c r="I11">
-        <v>0.9364238656707613</v>
+        <v>0.5795722499284039</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.58530526306231</v>
+        <v>1.967836055889393</v>
       </c>
       <c r="C12">
-        <v>2.627125391898744</v>
+        <v>0.7341532637036607</v>
       </c>
       <c r="D12">
-        <v>0.3772405214684511</v>
+        <v>0.1187969247149709</v>
       </c>
       <c r="E12">
-        <v>2.765066801554667</v>
+        <v>0.7027524360483852</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.883045692256331</v>
+        <v>1.06866674214001</v>
       </c>
       <c r="H12">
-        <v>1.388838625950228</v>
+        <v>0.8562361722395053</v>
       </c>
       <c r="I12">
-        <v>0.9640616304209715</v>
+        <v>0.5826986640974212</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.546090366677106</v>
+        <v>1.95795058464148</v>
       </c>
       <c r="C13">
-        <v>2.611015262082276</v>
+        <v>0.7302763736279871</v>
       </c>
       <c r="D13">
-        <v>0.3748793253429028</v>
+        <v>0.1182647819889837</v>
       </c>
       <c r="E13">
-        <v>2.745913638206005</v>
+        <v>0.6989768860392616</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.863619061289029</v>
+        <v>1.065372199042287</v>
       </c>
       <c r="H13">
-        <v>1.38036745894064</v>
+        <v>0.8550754199502819</v>
       </c>
       <c r="I13">
-        <v>0.9580538532688792</v>
+        <v>0.5820210209279111</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.418639945718951</v>
+        <v>1.925717962338638</v>
       </c>
       <c r="C14">
-        <v>2.558702353483397</v>
+        <v>0.7176348051098103</v>
       </c>
       <c r="D14">
-        <v>0.3672140907919612</v>
+        <v>0.1165307235312127</v>
       </c>
       <c r="E14">
-        <v>2.683912872485195</v>
+        <v>0.6866713453964763</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.800769621610414</v>
+        <v>1.054655314732884</v>
       </c>
       <c r="H14">
-        <v>1.352983562846646</v>
+        <v>0.8513093633710014</v>
       </c>
       <c r="I14">
-        <v>0.938672969871547</v>
+        <v>0.5798275207083563</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.340899581557835</v>
+        <v>1.905979168566148</v>
       </c>
       <c r="C15">
-        <v>2.526827500083982</v>
+        <v>0.7098928477166169</v>
       </c>
       <c r="D15">
-        <v>0.3625451931109041</v>
+        <v>0.1154696144489691</v>
       </c>
       <c r="E15">
-        <v>2.646279297244504</v>
+        <v>0.6791394260746983</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.762650239847346</v>
+        <v>1.048111838976951</v>
       </c>
       <c r="H15">
-        <v>1.336391604310279</v>
+        <v>0.8490174237211647</v>
       </c>
       <c r="I15">
-        <v>0.9269602165785216</v>
+        <v>0.5784965380328586</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.900026342369245</v>
+        <v>1.792933712186141</v>
       </c>
       <c r="C16">
-        <v>2.346545047222264</v>
+        <v>0.6655467876013859</v>
       </c>
       <c r="D16">
-        <v>0.3361641490634071</v>
+        <v>0.1094047635699837</v>
       </c>
       <c r="E16">
-        <v>2.43545043171531</v>
+        <v>0.6360598042797818</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.54958866307382</v>
+        <v>1.010931231222287</v>
       </c>
       <c r="H16">
-        <v>1.243903419089577</v>
+        <v>0.8361098395073441</v>
       </c>
       <c r="I16">
-        <v>0.862108368045142</v>
+        <v>0.5710609180318826</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.633305726254264</v>
+        <v>1.723644813983412</v>
       </c>
       <c r="C17">
-        <v>2.237868795980091</v>
+        <v>0.6383586528295382</v>
       </c>
       <c r="D17">
-        <v>0.3202857291340422</v>
+        <v>0.1056981947430415</v>
       </c>
       <c r="E17">
-        <v>2.309994521002224</v>
+        <v>0.6097027264817143</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.423279555080711</v>
+        <v>0.9884017653685646</v>
       </c>
       <c r="H17">
-        <v>1.189289628356761</v>
+        <v>0.828392075553495</v>
       </c>
       <c r="I17">
-        <v>0.8241854148366983</v>
+        <v>0.5666689366248647</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.481127449018061</v>
+        <v>1.683813533922148</v>
       </c>
       <c r="C18">
-        <v>2.175992927799825</v>
+        <v>0.6227264838037172</v>
       </c>
       <c r="D18">
-        <v>0.3112545437437291</v>
+        <v>0.1035713484634613</v>
       </c>
       <c r="E18">
-        <v>2.239104658581127</v>
+        <v>0.5945677078392038</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.352095836548415</v>
+        <v>0.975544758203057</v>
       </c>
       <c r="H18">
-        <v>1.158588312507277</v>
+        <v>0.8240261285359338</v>
       </c>
       <c r="I18">
-        <v>0.8029971709266519</v>
+        <v>0.5642044830309345</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.429801574004671</v>
+        <v>1.670331055943791</v>
       </c>
       <c r="C19">
-        <v>2.155144802403015</v>
+        <v>0.6174346438580756</v>
       </c>
       <c r="D19">
-        <v>0.3082132594553002</v>
+        <v>0.1028520989463715</v>
       </c>
       <c r="E19">
-        <v>2.215306836456691</v>
+        <v>0.5894474127494647</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.328232790060611</v>
+        <v>0.9712088687973335</v>
       </c>
       <c r="H19">
-        <v>1.148309351689306</v>
+        <v>0.8225603914360988</v>
       </c>
       <c r="I19">
-        <v>0.7959250703896288</v>
+        <v>0.5633806010073172</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.661567999788701</v>
+        <v>1.73101846196505</v>
       </c>
       <c r="C20">
-        <v>2.249370591987827</v>
+        <v>0.641252273991654</v>
       </c>
       <c r="D20">
-        <v>0.3219652649567593</v>
+        <v>0.1060922384139076</v>
       </c>
       <c r="E20">
-        <v>2.323214847822868</v>
+        <v>0.6125058816425764</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.436570450340326</v>
+        <v>0.9907895447019541</v>
       </c>
       <c r="H20">
-        <v>1.195028274283032</v>
+        <v>0.8292060644940875</v>
       </c>
       <c r="I20">
-        <v>0.8281565084780667</v>
+        <v>0.5671300714640353</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.456006183997602</v>
+        <v>1.935184499547063</v>
       </c>
       <c r="C21">
-        <v>2.574032344091449</v>
+        <v>0.7213476526380873</v>
       </c>
       <c r="D21">
-        <v>0.3694600086733857</v>
+        <v>0.11703983889808</v>
       </c>
       <c r="E21">
-        <v>2.7020512818073</v>
+        <v>0.6902846115565211</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.819150297509196</v>
+        <v>1.057798754640828</v>
       </c>
       <c r="H21">
-        <v>1.360988588550271</v>
+        <v>0.852412441263624</v>
       </c>
       <c r="I21">
-        <v>0.944332148649849</v>
+        <v>0.5804691757670355</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.989444192501992</v>
+        <v>2.068824159933172</v>
       </c>
       <c r="C22">
-        <v>2.793544570688823</v>
+        <v>0.773754708855563</v>
       </c>
       <c r="D22">
-        <v>0.4016473554751627</v>
+        <v>0.1242415922959168</v>
       </c>
       <c r="E22">
-        <v>2.964587079263069</v>
+        <v>0.7413640747868016</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.085676940305376</v>
+        <v>1.102525888616782</v>
       </c>
       <c r="H22">
-        <v>1.477381535827135</v>
+        <v>0.8682434122472671</v>
       </c>
       <c r="I22">
-        <v>1.027191135096359</v>
+        <v>0.589749348446702</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.703258928776336</v>
+        <v>1.997478833510229</v>
       </c>
       <c r="C23">
-        <v>2.675623001447548</v>
+        <v>0.7457781294085635</v>
       </c>
       <c r="D23">
-        <v>0.3843503149245748</v>
+        <v>0.1203935106531446</v>
       </c>
       <c r="E23">
-        <v>2.822895694358124</v>
+        <v>0.714078215171952</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.941729798730677</v>
+        <v>1.078567352738133</v>
       </c>
       <c r="H23">
-        <v>1.41444756963628</v>
+        <v>0.8597326977865976</v>
       </c>
       <c r="I23">
-        <v>0.9822582689818091</v>
+        <v>0.584744267350402</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.648787037034879</v>
+        <v>1.72768482389688</v>
       </c>
       <c r="C24">
-        <v>2.244168767505414</v>
+        <v>0.6399440721629617</v>
       </c>
       <c r="D24">
-        <v>0.3212056455218857</v>
+        <v>0.1059140784885813</v>
       </c>
       <c r="E24">
-        <v>2.317234123809797</v>
+        <v>0.6112385193526961</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.430557208161957</v>
+        <v>0.9897097325915922</v>
       </c>
       <c r="H24">
-        <v>1.192431678222988</v>
+        <v>0.8288378387846649</v>
       </c>
       <c r="I24">
-        <v>0.8263592781697895</v>
+        <v>0.5669214039302375</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.557313208979338</v>
+        <v>1.437497525831304</v>
       </c>
       <c r="C25">
-        <v>1.802335377053339</v>
+        <v>0.5259984073898067</v>
       </c>
       <c r="D25">
-        <v>0.256891447814013</v>
+        <v>0.09048864546777224</v>
       </c>
       <c r="E25">
-        <v>1.819151153642252</v>
+        <v>0.5012456823349396</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.934004022074703</v>
+        <v>0.8977191713597676</v>
       </c>
       <c r="H25">
-        <v>0.9795723349302534</v>
+        <v>0.7982999516459017</v>
       </c>
       <c r="I25">
-        <v>0.6815662764014263</v>
+        <v>0.5500478280253702</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_156/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_156/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.224441849520701</v>
+        <v>3.779723608206837</v>
       </c>
       <c r="C2">
-        <v>0.4422168556887982</v>
+        <v>1.490346730542853</v>
       </c>
       <c r="D2">
-        <v>0.07928524414171534</v>
+        <v>0.21179444198863</v>
       </c>
       <c r="E2">
-        <v>0.420912291607948</v>
+        <v>1.478969643268016</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.8331245288309219</v>
+        <v>1.601544118295863</v>
       </c>
       <c r="H2">
-        <v>0.7781348121798999</v>
+        <v>0.8392317714825595</v>
       </c>
       <c r="I2">
-        <v>0.5395731323089805</v>
+        <v>0.589446585761344</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.080384171106516</v>
+        <v>3.263734292916695</v>
       </c>
       <c r="C3">
-        <v>0.3854780840128456</v>
+        <v>1.28454350828116</v>
       </c>
       <c r="D3">
-        <v>0.0717832443492199</v>
+        <v>0.1822404197142902</v>
       </c>
       <c r="E3">
-        <v>0.3668040333107143</v>
+        <v>1.259717903230282</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.7912173271899405</v>
+        <v>1.391462923451797</v>
       </c>
       <c r="H3">
-        <v>0.7658778946088773</v>
+        <v>0.751811236352097</v>
       </c>
       <c r="I3">
-        <v>0.5336542410614769</v>
+        <v>0.5338694304836551</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9920831924560503</v>
+        <v>2.950899464458246</v>
       </c>
       <c r="C4">
-        <v>0.3506509177374255</v>
+        <v>1.160232273427368</v>
       </c>
       <c r="D4">
-        <v>0.06721998986452604</v>
+        <v>0.1644814667720027</v>
       </c>
       <c r="E4">
-        <v>0.3337230811786895</v>
+        <v>1.129277464165668</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.7663798871778909</v>
+        <v>1.268498347677735</v>
       </c>
       <c r="H4">
-        <v>0.759035056955355</v>
+        <v>0.7012367774787265</v>
       </c>
       <c r="I4">
-        <v>0.530590331385568</v>
+        <v>0.5025277179071921</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9561366869488666</v>
+        <v>2.824232303583983</v>
       </c>
       <c r="C5">
-        <v>0.3364601464040788</v>
+        <v>1.109996534313836</v>
       </c>
       <c r="D5">
-        <v>0.06537102845226173</v>
+        <v>0.15732750318206</v>
       </c>
       <c r="E5">
-        <v>0.3202748146432839</v>
+        <v>1.076995741232906</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.7564792546534136</v>
+        <v>1.219710366197376</v>
       </c>
       <c r="H5">
-        <v>0.7564165988064531</v>
+        <v>0.6813170077161317</v>
       </c>
       <c r="I5">
-        <v>0.5294835121654629</v>
+        <v>0.4903771933810361</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9501699923242199</v>
+        <v>2.803243513585812</v>
       </c>
       <c r="C6">
-        <v>0.3341038435743826</v>
+        <v>1.101677872130779</v>
       </c>
       <c r="D6">
-        <v>0.065064644020012</v>
+        <v>0.1561442090345366</v>
       </c>
       <c r="E6">
-        <v>0.3180436112658214</v>
+        <v>1.068362410943521</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.7548484855350353</v>
+        <v>1.211683667847723</v>
       </c>
       <c r="H6">
-        <v>0.7559920277196284</v>
+        <v>0.6780485475453872</v>
       </c>
       <c r="I6">
-        <v>0.5293082385404375</v>
+        <v>0.4883950128720116</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9915982574891586</v>
+        <v>2.94918811610728</v>
       </c>
       <c r="C7">
-        <v>0.3504595310654395</v>
+        <v>1.159553184234881</v>
       </c>
       <c r="D7">
-        <v>0.06719501147472329</v>
+        <v>0.1643846680475605</v>
       </c>
       <c r="E7">
-        <v>0.3335415857384447</v>
+        <v>1.128569054800934</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.7662454748208347</v>
+        <v>1.267835268276286</v>
       </c>
       <c r="H7">
-        <v>0.7589990571801764</v>
+        <v>0.7009654520351489</v>
       </c>
       <c r="I7">
-        <v>0.5305748326840245</v>
+        <v>0.5023614327213934</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.17473868244997</v>
+        <v>3.60086439203252</v>
       </c>
       <c r="C8">
-        <v>0.4226504255448162</v>
+        <v>1.418899525116444</v>
       </c>
       <c r="D8">
-        <v>0.07668949851232298</v>
+        <v>0.2015146315522856</v>
       </c>
       <c r="E8">
-        <v>0.402224423252477</v>
+        <v>1.402389464520382</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.8184870500026022</v>
+        <v>1.527733477800467</v>
       </c>
       <c r="H8">
-        <v>0.7737658568335348</v>
+        <v>0.8083877112514983</v>
       </c>
       <c r="I8">
-        <v>0.5374129244749994</v>
+        <v>0.5696560791810299</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.535146559177406</v>
+        <v>4.920138006722084</v>
       </c>
       <c r="C9">
-        <v>0.5643588085901001</v>
+        <v>1.948691201615759</v>
       </c>
       <c r="D9">
-        <v>0.09566000308355171</v>
+        <v>0.278145393369627</v>
       </c>
       <c r="E9">
-        <v>0.5381854486696369</v>
+        <v>1.981994252798273</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.9282071144384645</v>
+        <v>2.095297468625745</v>
       </c>
       <c r="H9">
-        <v>0.8082212371615753</v>
+        <v>1.048346906190716</v>
       </c>
       <c r="I9">
-        <v>0.5554240937004522</v>
+        <v>0.727759659991186</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.800843055259918</v>
+        <v>5.93063800268493</v>
       </c>
       <c r="C10">
-        <v>0.6686499495361886</v>
+        <v>2.359036579549979</v>
       </c>
       <c r="D10">
-        <v>0.1098284020873592</v>
+        <v>0.33799050827038</v>
       </c>
       <c r="E10">
-        <v>0.639070785498788</v>
+        <v>2.449948741752834</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.013515835252917</v>
+        <v>2.564210572307815</v>
       </c>
       <c r="H10">
-        <v>0.837000441137576</v>
+        <v>1.250236478140636</v>
       </c>
       <c r="I10">
-        <v>0.5715704776142445</v>
+        <v>0.8665244137875874</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.921943027878456</v>
+        <v>6.403754560831999</v>
       </c>
       <c r="C11">
-        <v>0.7161542255649351</v>
+        <v>2.552597095902172</v>
       </c>
       <c r="D11">
-        <v>0.1163277447645044</v>
+        <v>0.3663197202734239</v>
       </c>
       <c r="E11">
-        <v>0.6852306832343089</v>
+        <v>2.676696173441812</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.053402763484911</v>
+        <v>2.793457974817869</v>
       </c>
       <c r="H11">
-        <v>0.8508701930509801</v>
+        <v>1.349800071315371</v>
       </c>
       <c r="I11">
-        <v>0.5795722499284039</v>
+        <v>0.9364238656707755</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.967836055889393</v>
+        <v>6.58530526306231</v>
       </c>
       <c r="C12">
-        <v>0.7341532637036607</v>
+        <v>2.627125391899028</v>
       </c>
       <c r="D12">
-        <v>0.1187969247149709</v>
+        <v>0.3772405214686785</v>
       </c>
       <c r="E12">
-        <v>0.7027524360483852</v>
+        <v>2.765066801554653</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.06866674214001</v>
+        <v>2.883045692256331</v>
       </c>
       <c r="H12">
-        <v>0.8562361722395053</v>
+        <v>1.388838625950143</v>
       </c>
       <c r="I12">
-        <v>0.5826986640974212</v>
+        <v>0.9640616304209573</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.95795058464148</v>
+        <v>6.546090366677163</v>
       </c>
       <c r="C13">
-        <v>0.7302763736279871</v>
+        <v>2.611015262082162</v>
       </c>
       <c r="D13">
-        <v>0.1182647819889837</v>
+        <v>0.3748793253428175</v>
       </c>
       <c r="E13">
-        <v>0.6989768860392616</v>
+        <v>2.745913638206034</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.065372199042287</v>
+        <v>2.863619061289114</v>
       </c>
       <c r="H13">
-        <v>0.8550754199502819</v>
+        <v>1.380367458940754</v>
       </c>
       <c r="I13">
-        <v>0.5820210209279111</v>
+        <v>0.9580538532688934</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.925717962338638</v>
+        <v>6.418639945718951</v>
       </c>
       <c r="C14">
-        <v>0.7176348051098103</v>
+        <v>2.558702353483625</v>
       </c>
       <c r="D14">
-        <v>0.1165307235312127</v>
+        <v>0.3672140907921886</v>
       </c>
       <c r="E14">
-        <v>0.6866713453964763</v>
+        <v>2.683912872485195</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.054655314732884</v>
+        <v>2.800769621610385</v>
       </c>
       <c r="H14">
-        <v>0.8513093633710014</v>
+        <v>1.352983562846646</v>
       </c>
       <c r="I14">
-        <v>0.5798275207083563</v>
+        <v>0.9386729698715328</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.905979168566148</v>
+        <v>6.340899581557778</v>
       </c>
       <c r="C15">
-        <v>0.7098928477166169</v>
+        <v>2.526827500083812</v>
       </c>
       <c r="D15">
-        <v>0.1154696144489691</v>
+        <v>0.3625451931109041</v>
       </c>
       <c r="E15">
-        <v>0.6791394260746983</v>
+        <v>2.646279297244519</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.048111838976951</v>
+        <v>2.762650239847432</v>
       </c>
       <c r="H15">
-        <v>0.8490174237211647</v>
+        <v>1.336391604310421</v>
       </c>
       <c r="I15">
-        <v>0.5784965380328586</v>
+        <v>0.9269602165785216</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.792933712186141</v>
+        <v>5.900026342369358</v>
       </c>
       <c r="C16">
-        <v>0.6655467876013859</v>
+        <v>2.34654504722198</v>
       </c>
       <c r="D16">
-        <v>0.1094047635699837</v>
+        <v>0.3361641490632081</v>
       </c>
       <c r="E16">
-        <v>0.6360598042797818</v>
+        <v>2.435450431715296</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.010931231222287</v>
+        <v>2.549588663073848</v>
       </c>
       <c r="H16">
-        <v>0.8361098395073441</v>
+        <v>1.24390341908969</v>
       </c>
       <c r="I16">
-        <v>0.5710609180318826</v>
+        <v>0.862108368045142</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.723644813983412</v>
+        <v>5.633305726254321</v>
       </c>
       <c r="C17">
-        <v>0.6383586528295382</v>
+        <v>2.237868795979921</v>
       </c>
       <c r="D17">
-        <v>0.1056981947430415</v>
+        <v>0.3202857291340564</v>
       </c>
       <c r="E17">
-        <v>0.6097027264817143</v>
+        <v>2.309994521002096</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.9884017653685646</v>
+        <v>2.423279555080825</v>
       </c>
       <c r="H17">
-        <v>0.828392075553495</v>
+        <v>1.189289628356789</v>
       </c>
       <c r="I17">
-        <v>0.5666689366248647</v>
+        <v>0.8241854148367054</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.683813533922148</v>
+        <v>5.481127449018231</v>
       </c>
       <c r="C18">
-        <v>0.6227264838037172</v>
+        <v>2.175992927800053</v>
       </c>
       <c r="D18">
-        <v>0.1035713484634613</v>
+        <v>0.3112545437436154</v>
       </c>
       <c r="E18">
-        <v>0.5945677078392038</v>
+        <v>2.239104658581127</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.975544758203057</v>
+        <v>2.352095836548358</v>
       </c>
       <c r="H18">
-        <v>0.8240261285359338</v>
+        <v>1.158588312507277</v>
       </c>
       <c r="I18">
-        <v>0.5642044830309345</v>
+        <v>0.8029971709266519</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.670331055943791</v>
+        <v>5.429801574004671</v>
       </c>
       <c r="C19">
-        <v>0.6174346438580756</v>
+        <v>2.155144802402901</v>
       </c>
       <c r="D19">
-        <v>0.1028520989463715</v>
+        <v>0.3082132594550728</v>
       </c>
       <c r="E19">
-        <v>0.5894474127494647</v>
+        <v>2.215306836456634</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.9712088687973335</v>
+        <v>2.328232790060724</v>
       </c>
       <c r="H19">
-        <v>0.8225603914360988</v>
+        <v>1.148309351689193</v>
       </c>
       <c r="I19">
-        <v>0.5633806010073172</v>
+        <v>0.7959250703896217</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.73101846196505</v>
+        <v>5.661567999788758</v>
       </c>
       <c r="C20">
-        <v>0.641252273991654</v>
+        <v>2.249370591988111</v>
       </c>
       <c r="D20">
-        <v>0.1060922384139076</v>
+        <v>0.3219652649571145</v>
       </c>
       <c r="E20">
-        <v>0.6125058816425764</v>
+        <v>2.32321484782284</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.9907895447019541</v>
+        <v>2.436570450340326</v>
       </c>
       <c r="H20">
-        <v>0.8292060644940875</v>
+        <v>1.195028274283061</v>
       </c>
       <c r="I20">
-        <v>0.5671300714640353</v>
+        <v>0.8281565084780595</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.935184499547063</v>
+        <v>6.456006183997715</v>
       </c>
       <c r="C21">
-        <v>0.7213476526380873</v>
+        <v>2.574032344091279</v>
       </c>
       <c r="D21">
-        <v>0.11703983889808</v>
+        <v>0.3694600086735704</v>
       </c>
       <c r="E21">
-        <v>0.6902846115565211</v>
+        <v>2.702051281807343</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.057798754640828</v>
+        <v>2.819150297509367</v>
       </c>
       <c r="H21">
-        <v>0.852412441263624</v>
+        <v>1.360988588550242</v>
       </c>
       <c r="I21">
-        <v>0.5804691757670355</v>
+        <v>0.944332148649849</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.068824159933172</v>
+        <v>6.989444192502219</v>
       </c>
       <c r="C22">
-        <v>0.773754708855563</v>
+        <v>2.793544570688482</v>
       </c>
       <c r="D22">
-        <v>0.1242415922959168</v>
+        <v>0.4016473554754896</v>
       </c>
       <c r="E22">
-        <v>0.7413640747868016</v>
+        <v>2.964587079263097</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.102525888616782</v>
+        <v>3.085676940305319</v>
       </c>
       <c r="H22">
-        <v>0.8682434122472671</v>
+        <v>1.477381535827107</v>
       </c>
       <c r="I22">
-        <v>0.589749348446702</v>
+        <v>1.027191135096359</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.997478833510229</v>
+        <v>6.703258928776222</v>
       </c>
       <c r="C23">
-        <v>0.7457781294085635</v>
+        <v>2.675623001447661</v>
       </c>
       <c r="D23">
-        <v>0.1203935106531446</v>
+        <v>0.3843503149246885</v>
       </c>
       <c r="E23">
-        <v>0.714078215171952</v>
+        <v>2.822895694358138</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.078567352738133</v>
+        <v>2.941729798730705</v>
       </c>
       <c r="H23">
-        <v>0.8597326977865976</v>
+        <v>1.414447569636309</v>
       </c>
       <c r="I23">
-        <v>0.584744267350402</v>
+        <v>0.9822582689817949</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.72768482389688</v>
+        <v>5.648787037034651</v>
       </c>
       <c r="C24">
-        <v>0.6399440721629617</v>
+        <v>2.244168767505073</v>
       </c>
       <c r="D24">
-        <v>0.1059140784885813</v>
+        <v>0.3212056455216441</v>
       </c>
       <c r="E24">
-        <v>0.6112385193526961</v>
+        <v>2.31723412380984</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.9897097325915922</v>
+        <v>2.430557208162071</v>
       </c>
       <c r="H24">
-        <v>0.8288378387846649</v>
+        <v>1.192431678222988</v>
       </c>
       <c r="I24">
-        <v>0.5669214039302375</v>
+        <v>0.8263592781697966</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.437497525831304</v>
+        <v>4.557313208979451</v>
       </c>
       <c r="C25">
-        <v>0.5259984073898067</v>
+        <v>1.802335377053453</v>
       </c>
       <c r="D25">
-        <v>0.09048864546777224</v>
+        <v>0.2568914478141124</v>
       </c>
       <c r="E25">
-        <v>0.5012456823349396</v>
+        <v>1.819151153642309</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.8977191713597676</v>
+        <v>1.934004022074674</v>
       </c>
       <c r="H25">
-        <v>0.7982999516459017</v>
+        <v>0.9795723349302818</v>
       </c>
       <c r="I25">
-        <v>0.5500478280253702</v>
+        <v>0.6815662764014476</v>
       </c>
       <c r="J25">
         <v>0</v>
